--- a/results/resultados_santander.xlsx
+++ b/results/resultados_santander.xlsx
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29168</v>
+        <v>29367</v>
       </c>
       <c r="C2">
-        <v>6812</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -429,10 +429,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C3">
-        <v>3249</v>
+        <v>3228</v>
       </c>
     </row>
   </sheetData>
@@ -470,19 +470,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.8849648811420077</v>
+        <v>0.8880388273182238</v>
       </c>
       <c r="C2">
-        <v>0.4614729067537817</v>
+        <v>0.4657672606594041</v>
       </c>
       <c r="D2">
-        <v>0.810425</v>
+        <v>0.814875</v>
       </c>
       <c r="E2">
-        <v>0.6732188939478947</v>
+        <v>0.676903043988814</v>
       </c>
       <c r="F2">
-        <v>0.842403937715991</v>
+        <v>0.8456005348690123</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -490,19 +490,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9742476368616186</v>
+        <v>0.9737391823336318</v>
       </c>
       <c r="C3">
-        <v>0.322930126229997</v>
+        <v>0.3280154455847983</v>
       </c>
       <c r="D3">
-        <v>0.810425</v>
+        <v>0.814875</v>
       </c>
       <c r="E3">
-        <v>0.6485888815458078</v>
+        <v>0.650877313959215</v>
       </c>
       <c r="F3">
-        <v>0.9087902270431406</v>
+        <v>0.9088439467903739</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -510,19 +510,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.8106725958866037</v>
+        <v>0.8162034463590884</v>
       </c>
       <c r="C4">
-        <v>0.8082089552238806</v>
+        <v>0.8029850746268656</v>
       </c>
       <c r="D4">
-        <v>0.810425</v>
+        <v>0.814875</v>
       </c>
       <c r="E4">
-        <v>0.8094407755552422</v>
+        <v>0.809594260492977</v>
       </c>
       <c r="F4">
-        <v>0.810425</v>
+        <v>0.814875</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -536,7 +536,7 @@
         <v>4020</v>
       </c>
       <c r="D5">
-        <v>0.810425</v>
+        <v>0.814875</v>
       </c>
       <c r="E5">
         <v>40000</v>
